--- a/results/data/CG2.1.xlsx
+++ b/results/data/CG2.1.xlsx
@@ -418,7 +418,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>3291269.264000002</v>
+        <v>3291541.348000002</v>
       </c>
     </row>
   </sheetData>

--- a/results/data/CG2.1.xlsx
+++ b/results/data/CG2.1.xlsx
@@ -402,7 +402,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3536.109999999999</v>
+        <v>209.71</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -410,7 +410,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>706.423</v>
+        <v>706.0350000000001</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -418,7 +418,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>3291541.348000002</v>
+        <v>3226626.971000002</v>
       </c>
     </row>
   </sheetData>
